--- a/Tai_Gi_Zu_Im_Bun_BAK.xlsx
+++ b/Tai_Gi_Zu_Im_Bun_BAK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CB479-8A86-460A-8127-01C0098E508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8210EE6-CA44-467A-88E6-D84D348B8FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -22,9 +22,6 @@
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
@@ -71,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="277">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,22 +1274,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thⁿi¹</t>
-  </si>
-  <si>
-    <t>ㄊㄧ¹</t>
-  </si>
-  <si>
-    <t>u⁷</t>
-  </si>
-  <si>
-    <t>ㄨ⁷</t>
-  </si>
-  <si>
-    <t>put⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄨ⁴</t>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>鴉</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>程</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>騎</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>沖</t>
+  </si>
+  <si>
+    <t>志</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>測</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>旦</t>
+  </si>
+  <si>
+    <t>夕</t>
+  </si>
+  <si>
+    <t>禍</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>蜈</t>
+  </si>
+  <si>
+    <t>蚣</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>雞</t>
+  </si>
+  <si>
+    <t>兩</t>
+  </si>
+  <si>
+    <t>翼</t>
   </si>
 </sst>
 </file>
@@ -2142,6 +2265,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2150,9 +2276,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2563,66 +2686,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="國語注音符號"/>
-      <sheetName val="台語注音符號"/>
-      <sheetName val="聲母發音表"/>
-      <sheetName val="135拼音-注音符號與台語音標"/>
-      <sheetName val="台語注音符號用例"/>
-      <sheetName val="135拼音-聲調符號"/>
-      <sheetName val="135拼音-聲調轉換"/>
-      <sheetName val="135拼音-聲調符號 (2)"/>
-      <sheetName val=" 135拼音-鍵盤設計"/>
-      <sheetName val="135拼音-注音符號、電腦鍵盤與音標編碼"/>
-      <sheetName val="台羅拼音字母"/>
-      <sheetName val="台灣十八音-45韻母"/>
-      <sheetName val="注音測試"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>ㄚ</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>ㄚˋ</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>ㄚ_</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>ㄚˇ</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>ㄚ+</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -2943,7 +3006,7 @@
   <dimension ref="B1:V23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3063,7 +3126,7 @@
         <v>170</v>
       </c>
       <c r="S3" s="68"/>
-      <c r="U3" s="88">
+      <c r="U3" s="85">
         <f xml:space="preserve"> LEN(V3)</f>
         <v>62</v>
       </c>
@@ -3073,15 +3136,9 @@
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>233</v>
-      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
@@ -3101,79 +3158,58 @@
         <v>1</v>
       </c>
       <c r="C5" s="69"/>
-      <c r="D5" s="4" t="str" cm="1">
-        <f t="array" ref="D5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>天</v>
-      </c>
-      <c r="E5" s="4" t="str" cm="1">
-        <f t="array" ref="E5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="F5" s="4" t="str" cm="1">
-        <f t="array" ref="F5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="G5" s="4" t="str" cm="1">
-        <f t="array" ref="G5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>測</v>
-      </c>
-      <c r="H5" s="4" t="str" cm="1">
-        <f t="array" ref="H5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>風</v>
-      </c>
-      <c r="I5" s="4" t="str" cm="1">
-        <f t="array" ref="I5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雲</v>
-      </c>
-      <c r="J5" s="4" t="str" cm="1">
-        <f t="array" ref="J5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="K5" s="4" t="str" cm="1">
-        <f t="array" ref="K5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="L5" s="4" t="str" cm="1">
-        <f t="array" ref="L5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="M5" s="4" t="str" cm="1">
-        <f t="array" ref="M5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>旦</v>
-      </c>
-      <c r="N5" s="4" t="str" cm="1">
-        <f t="array" ref="N5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>夕</v>
-      </c>
-      <c r="O5" s="4" t="str" cm="1">
-        <f t="array" ref="O5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>禍</v>
-      </c>
-      <c r="P5" s="4" t="str" cm="1">
-        <f t="array" ref="P5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>福</v>
-      </c>
-      <c r="Q5" s="4" t="str" cm="1">
-        <f t="array" ref="Q5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="R5" s="4" t="str" cm="1">
-        <f t="array" ref="R5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蜈</v>
+      <c r="D5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="S5" s="72"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
-      <c r="D6" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>234</v>
-      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -3256,65 +3292,50 @@
         <v>2</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="4" t="str" cm="1">
-        <f t="array" ref="D9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蚣</v>
-      </c>
-      <c r="E9" s="4" t="str" cm="1">
-        <f t="array" ref="E9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>百</v>
-      </c>
-      <c r="F9" s="4" t="str" cm="1">
-        <f t="array" ref="F9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>足</v>
-      </c>
-      <c r="G9" s="4" t="str" cm="1">
-        <f t="array" ref="G9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>行</v>
-      </c>
-      <c r="I9" s="4" t="str" cm="1">
-        <f t="array" ref="I9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="J9" s="4" t="str" cm="1">
-        <f t="array" ref="J9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>及</v>
-      </c>
-      <c r="K9" s="4" t="str" cm="1">
-        <f t="array" ref="K9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蛇</v>
-      </c>
-      <c r="L9" s="4" t="str" cm="1">
-        <f t="array" ref="L9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="M9" s="4" t="str" cm="1">
-        <f t="array" ref="M9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雄</v>
-      </c>
-      <c r="N9" s="4" t="str" cm="1">
-        <f t="array" ref="N9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雞</v>
-      </c>
-      <c r="O9" s="4" t="str" cm="1">
-        <f t="array" ref="O9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>兩</v>
-      </c>
-      <c r="P9" s="4" t="str" cm="1">
-        <f t="array" ref="P9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>翼</v>
-      </c>
-      <c r="Q9" s="4" t="str" cm="1">
-        <f t="array" ref="Q9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="R9" s="4" t="str" cm="1">
-        <f t="array" ref="R9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>飛</v>
+      <c r="D9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="S9" s="72"/>
     </row>
@@ -3407,65 +3428,50 @@
         <v>3</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="4" t="str" cm="1">
-        <f t="array" ref="D13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="E13" s="4" t="str" cm="1">
-        <f t="array" ref="E13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>過</v>
-      </c>
-      <c r="F13" s="4" t="str" cm="1">
-        <f t="array" ref="F13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>鴉</v>
-      </c>
-      <c r="G13" s="4" t="str" cm="1">
-        <f t="array" ref="G13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="H13" s="4" t="str" cm="1">
-        <f t="array" ref="H13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>馬</v>
-      </c>
-      <c r="I13" s="4" t="str" cm="1">
-        <f t="array" ref="I13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="J13" s="4" t="str" cm="1">
-        <f t="array" ref="J13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>千</v>
-      </c>
-      <c r="K13" s="4" t="str" cm="1">
-        <f t="array" ref="K13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>里</v>
-      </c>
-      <c r="L13" s="4" t="str" cm="1">
-        <f t="array" ref="L13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="M13" s="4" t="str" cm="1">
-        <f t="array" ref="M13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>程</v>
-      </c>
-      <c r="N13" s="4" t="str" cm="1">
-        <f t="array" ref="N13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="O13" s="4" t="str" cm="1">
-        <f t="array" ref="O13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>無</v>
-      </c>
-      <c r="P13" s="4" t="str" cm="1">
-        <f t="array" ref="P13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>騎</v>
-      </c>
-      <c r="Q13" s="4" t="str" cm="1">
-        <f t="array" ref="Q13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="R13" s="4" t="str" cm="1">
-        <f t="array" ref="R13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>能</v>
+      <c r="D13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="S13" s="72"/>
     </row>
@@ -3558,65 +3564,50 @@
         <v>4</v>
       </c>
       <c r="C17" s="69"/>
-      <c r="D17" s="4" t="str" cm="1">
-        <f t="array" ref="D17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>自</v>
-      </c>
-      <c r="E17" s="4" t="str" cm="1">
-        <f t="array" ref="E17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>往</v>
-      </c>
-      <c r="F17" s="4" t="str" cm="1">
-        <f t="array" ref="F17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="G17" s="4" t="str" cm="1">
-        <f t="array" ref="G17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="H17" s="4" t="str" cm="1">
-        <f t="array" ref="H17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="I17" s="4" t="str" cm="1">
-        <f t="array" ref="I17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>沖</v>
-      </c>
-      <c r="J17" s="4" t="str" cm="1">
-        <f t="array" ref="J17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>天</v>
-      </c>
-      <c r="K17" s="4" t="str" cm="1">
-        <f t="array" ref="K17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="L17" s="4" t="str" cm="1">
-        <f t="array" ref="L17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>志</v>
-      </c>
-      <c r="M17" s="4" t="str" cm="1">
-        <f t="array" ref="M17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="N17" s="4" t="str" cm="1">
-        <f t="array" ref="N17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>非</v>
-      </c>
-      <c r="O17" s="4" t="str" cm="1">
-        <f t="array" ref="O17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>運</v>
-      </c>
-      <c r="P17" s="4" t="str" cm="1">
-        <f t="array" ref="P17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="Q17" s="4" t="str" cm="1">
-        <f t="array" ref="Q17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>能</v>
-      </c>
-      <c r="R17" s="4" t="str" cm="1">
-        <f t="array" ref="R17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>自</v>
+      <c r="D17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="S17" s="72"/>
     </row>
@@ -3685,66 +3676,25 @@
         <v>5</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="4" t="str" cm="1">
-        <f t="array" ref="D21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>通</v>
-      </c>
-      <c r="E21" s="4" t="str" cm="1">
-        <f t="array" ref="E21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="F21" s="4" t="str" cm="1">
-        <f t="array" ref="F21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="G21" s="4" t="str" cm="1">
-        <f t="array" ref="G21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="H21" s="4" t="str" cm="1">
-        <f t="array" ref="H21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="I21" s="4" t="str" cm="1">
-        <f t="array" ref="I21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="J21" s="4" t="str" cm="1">
-        <f t="array" ref="J21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="K21" s="4" t="str" cm="1">
-        <f t="array" ref="K21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="L21" s="4" t="str" cm="1">
-        <f t="array" ref="L21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M21" s="4" t="str" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N21" s="4" t="str" cm="1">
-        <f t="array" ref="N21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O21" s="4" t="str" cm="1">
-        <f t="array" ref="O21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P21" s="4" t="str" cm="1">
-        <f t="array" ref="P21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="4" t="str" cm="1">
-        <f t="array" ref="Q21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R21" s="4" t="str" cm="1">
-        <f t="array" ref="R21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
+      <c r="D21" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="72"/>
     </row>
     <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
@@ -6501,7 +6451,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6519,7 +6469,7 @@
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="86" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -6544,7 +6494,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="86"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -6564,7 +6514,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="86"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
@@ -6586,7 +6536,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
@@ -6602,7 +6552,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
@@ -6624,7 +6574,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
@@ -6640,7 +6590,7 @@
       <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="22" t="s">
         <v>27</v>
       </c>
@@ -6662,7 +6612,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -6678,7 +6628,7 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="15" t="s">
         <v>36</v>
       </c>
@@ -6700,7 +6650,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="87"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
@@ -6716,7 +6666,7 @@
       <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="87"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
@@ -6739,7 +6689,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="86" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -6757,7 +6707,7 @@
       <c r="G11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="86" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -6781,7 +6731,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="86"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -6801,7 +6751,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="15" t="s">
         <v>20</v>
       </c>
@@ -6821,7 +6771,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
@@ -6835,7 +6785,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -6855,7 +6805,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
@@ -6869,7 +6819,7 @@
       <c r="G14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
@@ -6889,7 +6839,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="86"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
@@ -6903,7 +6853,7 @@
       <c r="G15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="15" t="s">
         <v>36</v>
       </c>
@@ -6923,7 +6873,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
@@ -6937,7 +6887,7 @@
       <c r="G16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="87"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
@@ -7179,16 +7129,14 @@
       <c r="E4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!D12</f>
-        <v>ㄚˋ</v>
+      <c r="F4" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C12</f>
-        <v>ㄚ</v>
+      <c r="H4" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>85</v>
@@ -7251,16 +7199,14 @@
       <c r="E8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C19</f>
-        <v>ㄚˇ</v>
+      <c r="F8" s="48" t="s">
+        <v>231</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="H8" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>96</v>
@@ -7320,16 +7266,14 @@
       <c r="E12" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C12</f>
-        <v>ㄚ</v>
+      <c r="F12" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="H12" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>107</v>
@@ -7389,16 +7333,14 @@
       <c r="E16" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="F16" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E12</f>
-        <v>ㄚ_</v>
+      <c r="H16" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>118</v>
@@ -7458,16 +7400,14 @@
       <c r="E20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E12</f>
-        <v>ㄚ_</v>
+      <c r="F20" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!D12</f>
-        <v>ㄚˋ</v>
+      <c r="H20" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>130</v>

--- a/Tai_Gi_Zu_Im_Bun_BAK.xlsx
+++ b/Tai_Gi_Zu_Im_Bun_BAK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8210EE6-CA44-467A-88E6-D84D348B8FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84433103-D1B9-44BA-A2FF-B123A9AEAF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16020" windowHeight="12540" firstSheet="5" activeTab="8" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,17 @@
     <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId6"/>
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
+    <sheet name="env" sheetId="10" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="FILE_NAME">env!$C$3</definedName>
+    <definedName name="IMAGE_URL">env!$C$5</definedName>
+    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="TITLE">env!$C$4</definedName>
+    <definedName name="顯示注音輸入" localSheetId="8">[1]設定!$C$2</definedName>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="369">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,12 +1426,411 @@
   <si>
     <t>翼</t>
   </si>
+  <si>
+    <t>thⁿi¹</t>
+  </si>
+  <si>
+    <t>ㄊㄧ¹</t>
+  </si>
+  <si>
+    <t>u⁷</t>
+  </si>
+  <si>
+    <t>ㄨ⁷</t>
+  </si>
+  <si>
+    <t>put⁴</t>
+  </si>
+  <si>
+    <t>ㄅㄨ⁴</t>
+  </si>
+  <si>
+    <t>cik⁴</t>
+  </si>
+  <si>
+    <t>ㄑㄧ⁴</t>
+  </si>
+  <si>
+    <t>hong¹</t>
+  </si>
+  <si>
+    <t>ㄏㄛㄥ¹</t>
+  </si>
+  <si>
+    <t>hun⁵</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ⁵</t>
+  </si>
+  <si>
+    <t>lang⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄤ⁵</t>
+  </si>
+  <si>
+    <t>tan³</t>
+  </si>
+  <si>
+    <t>ㄉㄢ³</t>
+  </si>
+  <si>
+    <t>sik⁸</t>
+  </si>
+  <si>
+    <t>ㄒㄧ⁸</t>
+  </si>
+  <si>
+    <t>ho⁷</t>
+  </si>
+  <si>
+    <t>ㄏㄜ⁷</t>
+  </si>
+  <si>
+    <t>hok⁴</t>
+  </si>
+  <si>
+    <t>ㄏㄛ⁴</t>
+  </si>
+  <si>
+    <t>ngoo⁵</t>
+  </si>
+  <si>
+    <t>ㄥㄛ⁵</t>
+  </si>
+  <si>
+    <t>kang¹</t>
+  </si>
+  <si>
+    <t>ㄍㄤ¹</t>
+  </si>
+  <si>
+    <t>pah⁴</t>
+  </si>
+  <si>
+    <t>ㄅㄚ⁴</t>
+  </si>
+  <si>
+    <t>ziok⁴</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄛ⁴</t>
+  </si>
+  <si>
+    <t>kⁿia⁵</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄚ⁵</t>
+  </si>
+  <si>
+    <t>kip⁸</t>
+  </si>
+  <si>
+    <t>ㄍㄧ⁸</t>
+  </si>
+  <si>
+    <t>zua⁵</t>
+  </si>
+  <si>
+    <t>ㄗㄨㄚ⁵</t>
+  </si>
+  <si>
+    <t>hiong⁵</t>
+  </si>
+  <si>
+    <t>ㄏㄧㄛㄥ⁵</t>
+  </si>
+  <si>
+    <t>ke¹</t>
+  </si>
+  <si>
+    <t>ㄍㄝ¹</t>
+  </si>
+  <si>
+    <t>nng⁷</t>
+  </si>
+  <si>
+    <t>ㄋㄥ⁷</t>
+  </si>
+  <si>
+    <t>sit⁸</t>
+  </si>
+  <si>
+    <t>ㄒㄧ⁸</t>
+  </si>
+  <si>
+    <t>pue¹</t>
+  </si>
+  <si>
+    <t>ㄅㄨㄝ¹</t>
+  </si>
+  <si>
+    <t>ko¹</t>
+  </si>
+  <si>
+    <t>ㄍㄜ¹</t>
+  </si>
+  <si>
+    <t>a¹</t>
+  </si>
+  <si>
+    <t>ㄚ¹</t>
+  </si>
+  <si>
+    <t>ma¹</t>
+  </si>
+  <si>
+    <t>ㄇㄚ¹</t>
+  </si>
+  <si>
+    <t>cian¹</t>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ¹</t>
+  </si>
+  <si>
+    <t>li²</t>
+  </si>
+  <si>
+    <t>ㄌㄧ²</t>
+  </si>
+  <si>
+    <t>zi¹</t>
+  </si>
+  <si>
+    <t>ㄐㄧ¹</t>
+  </si>
+  <si>
+    <t>ting⁵</t>
+  </si>
+  <si>
+    <t>ㄉㄧㄥ⁵</t>
+  </si>
+  <si>
+    <t>bo⁵</t>
+  </si>
+  <si>
+    <t>ㄜ⁵</t>
+  </si>
+  <si>
+    <t>khia⁵</t>
+  </si>
+  <si>
+    <t>ㄎㄧㄚ⁵</t>
+  </si>
+  <si>
+    <t>lerng⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄧㄥ⁵</t>
+  </si>
+  <si>
+    <t>zu⁷</t>
+  </si>
+  <si>
+    <t>ㄗㄨ⁷</t>
+  </si>
+  <si>
+    <t>ong²</t>
+  </si>
+  <si>
+    <t>ㄛㄥ²</t>
+  </si>
+  <si>
+    <t>cong²</t>
+  </si>
+  <si>
+    <t>ㄘㄛㄥ²</t>
+  </si>
+  <si>
+    <t>zi³</t>
+  </si>
+  <si>
+    <t>ㄐㄧ³</t>
+  </si>
+  <si>
+    <t>hui¹</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄧ¹</t>
+  </si>
+  <si>
+    <t>un⁷</t>
+  </si>
+  <si>
+    <t>ㄨㄣ⁷</t>
+  </si>
+  <si>
+    <t>thong¹</t>
+  </si>
+  <si>
+    <t>ㄊㄛㄥ¹</t>
+  </si>
+  <si>
+    <r>
+      <t>〔thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ⁿ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>¹〕【ㄊㆪˉ】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>〔put</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>〕【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">ㄅㄨ】 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT_FILE_PATH</t>
+  </si>
+  <si>
+    <r>
+      <t>C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\Piau-Im</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Tai_Gi_Zu_Im_Bun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>寒窯賦</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_URL</t>
+  </si>
+  <si>
+    <t>https://learnsmart.edu.hk/wp-content/uploads/elementor/thumbs/-q3e1ahonwlevxwmjx5oqk2jlokxnu3fugk0sf8i6gi.jpg</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="68">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1693,11 +2101,15 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1838,8 +2250,64 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Cambria Math"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Cambria Math"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +2341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,10 +2492,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2268,6 +2748,12 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,11 +2763,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{B6D2C666-A2C8-4A7A-B9F2-077CC6E18448}"/>
+    <cellStyle name="超連結 2" xfId="2" xr:uid="{2C475C91-09A0-4196-8371-6BE024E9877D}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
@@ -2428,6 +2928,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2435,6 +2940,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2442,6 +2952,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2449,6 +2964,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2456,41 +2976,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2684,6 +3174,44 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="漢字注音"/>
+      <sheetName val="漢字注音 (2)"/>
+      <sheetName val="漢字注音 (3)"/>
+      <sheetName val="原文"/>
+      <sheetName val="135拼音-聲調符號"/>
+      <sheetName val="135拼音-聲調轉換"/>
+      <sheetName val="轉調助記圖"/>
+      <sheetName val="設定"/>
+      <sheetName val="env"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3005,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3084,45 +3612,45 @@
     </row>
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86" t="s">
         <v>170</v>
       </c>
       <c r="S3" s="68"/>
@@ -3136,21 +3664,47 @@
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="D4" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>287</v>
+      </c>
       <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="K4" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>297</v>
+      </c>
       <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+      <c r="R4" s="70" t="s">
+        <v>299</v>
+      </c>
       <c r="S4" s="71"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -3207,83 +3761,133 @@
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="D6" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>288</v>
+      </c>
       <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="K6" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
+      <c r="R6" s="74" t="s">
+        <v>300</v>
+      </c>
       <c r="S6" s="75"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C7" s="76"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77" t="s">
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87" t="s">
         <v>181</v>
       </c>
       <c r="S7" s="78"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="D8" s="70" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>305</v>
+      </c>
       <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="H8" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>311</v>
+      </c>
       <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
+      <c r="M8" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>319</v>
+      </c>
       <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="R8" s="70" t="s">
+        <v>321</v>
+      </c>
       <c r="S8" s="71"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -3341,85 +3945,135 @@
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C10" s="69"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="D10" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>306</v>
+      </c>
       <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="H10" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>312</v>
+      </c>
       <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
+      <c r="M10" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="N10" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>320</v>
+      </c>
       <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
+      <c r="R10" s="74" t="s">
+        <v>322</v>
+      </c>
       <c r="S10" s="79"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C11" s="76"/>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="77" t="s">
+      <c r="P11" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="R11" s="87" t="s">
         <v>191</v>
       </c>
       <c r="S11" s="78"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>325</v>
+      </c>
       <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="H12" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>335</v>
+      </c>
       <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
+      <c r="O12" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="R12" s="70" t="s">
+        <v>341</v>
+      </c>
       <c r="S12" s="71"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -3477,85 +4131,137 @@
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C14" s="69"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="D14" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>326</v>
+      </c>
       <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="H14" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>336</v>
+      </c>
       <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
+      <c r="O14" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q14" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="R14" s="74" t="s">
+        <v>342</v>
+      </c>
       <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C15" s="76"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="77" t="s">
+      <c r="K15" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77" t="s">
+      <c r="M15" s="87"/>
+      <c r="N15" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="P15" s="77" t="s">
+      <c r="P15" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="Q15" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="77" t="s">
+      <c r="R15" s="87" t="s">
         <v>192</v>
       </c>
       <c r="S15" s="78"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="D16" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>345</v>
+      </c>
       <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
+      <c r="G16" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>349</v>
+      </c>
       <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="N16" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>343</v>
+      </c>
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="2:19" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -3613,47 +4319,75 @@
     </row>
     <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C18" s="69"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>346</v>
+      </c>
       <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="G18" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="L18" s="74" t="s">
+        <v>350</v>
+      </c>
       <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
+      <c r="N18" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="P18" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="R18" s="74" t="s">
+        <v>344</v>
+      </c>
       <c r="S18" s="79"/>
     </row>
     <row r="19" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C19" s="76"/>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="78"/>
     </row>
     <row r="20" spans="2:19" s="2" customFormat="1" ht="25.5">
       <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
+      <c r="D20" s="70" t="s">
+        <v>355</v>
+      </c>
       <c r="E20" s="70"/>
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
@@ -3699,7 +4433,9 @@
     </row>
     <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C22" s="69"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="74" t="s">
+        <v>356</v>
+      </c>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
@@ -3738,43 +4474,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6416,7 +7137,7 @@
     <col min="18" max="18" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="44.25">
+    <row r="2" spans="2:18" ht="45.75">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +7172,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6469,7 +7190,7 @@
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="88" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -6494,7 +7215,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -6514,7 +7235,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
@@ -6536,7 +7257,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="87"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
@@ -6552,7 +7273,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
@@ -6574,7 +7295,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="87"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
@@ -6590,7 +7311,7 @@
       <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="22" t="s">
         <v>27</v>
       </c>
@@ -6612,7 +7333,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="87"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -6628,7 +7349,7 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="15" t="s">
         <v>36</v>
       </c>
@@ -6650,7 +7371,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="88"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
@@ -6666,7 +7387,7 @@
       <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
@@ -6689,7 +7410,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="88" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -6707,7 +7428,7 @@
       <c r="G11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="88" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -6731,7 +7452,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="87"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -6751,7 +7472,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="15" t="s">
         <v>20</v>
       </c>
@@ -6771,7 +7492,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="87"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
@@ -6785,7 +7506,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -6805,7 +7526,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="87"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
@@ -6819,7 +7540,7 @@
       <c r="G14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
@@ -6839,7 +7560,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="87"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
@@ -6853,7 +7574,7 @@
       <c r="G15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="87"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="15" t="s">
         <v>36</v>
       </c>
@@ -6873,7 +7594,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="88"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
@@ -6887,7 +7608,7 @@
       <c r="G16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="88"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
@@ -6907,7 +7628,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="18" spans="3:14" ht="32.25">
+    <row r="18" spans="3:14" ht="39">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -6920,7 +7641,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:14" ht="22.5">
+    <row r="19" spans="3:14">
       <c r="C19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="41"/>
@@ -6928,7 +7649,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:14" ht="22.5">
+    <row r="20" spans="3:14">
       <c r="C20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="41"/>
@@ -6936,7 +7657,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:14" ht="22.5">
+    <row r="21" spans="3:14">
       <c r="C21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="41"/>
@@ -6944,7 +7665,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:14" ht="22.5">
+    <row r="22" spans="3:14">
       <c r="C22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="41"/>
@@ -6952,7 +7673,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:14" ht="22.5">
+    <row r="23" spans="3:14">
       <c r="C23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
@@ -6960,7 +7681,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:14" ht="22.5">
+    <row r="24" spans="3:14">
       <c r="C24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="41"/>
@@ -6968,7 +7689,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:14" ht="22.5">
+    <row r="25" spans="3:14">
       <c r="C25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="41"/>
@@ -6976,7 +7697,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:14" ht="22.5">
+    <row r="26" spans="3:14">
       <c r="C26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="41"/>
@@ -6984,7 +7705,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:14" ht="22.5">
+    <row r="27" spans="3:14">
       <c r="J27" s="40"/>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -6998,63 +7719,63 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:14" ht="22.5">
+    <row r="29" spans="3:14">
       <c r="J29" s="40"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:14" ht="22.5">
+    <row r="30" spans="3:14">
       <c r="J30" s="40"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:14" ht="22.5">
+    <row r="31" spans="3:14">
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:14" ht="22.5">
+    <row r="32" spans="3:14">
       <c r="J32" s="40"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="10:14" ht="22.5">
+    <row r="33" spans="10:14">
       <c r="J33" s="40"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="10:14" ht="22.5">
+    <row r="34" spans="10:14">
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="10:14" ht="22.5">
+    <row r="35" spans="10:14">
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="10:14" ht="22.5">
+    <row r="36" spans="10:14">
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="10:14" ht="22.5">
+    <row r="37" spans="10:14">
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -7638,4 +8359,69 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2999B2E-4545-441F-8D75-3792BE30AB3C}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="92" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="92" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="92" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{80DD6D9F-4C1B-497F-8CE2-6D049FD19036}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>